--- a/fichierPourTest/placement_5-2-1.xlsx
+++ b/fichierPourTest/placement_5-2-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="179">
   <si>
     <t>GRP</t>
   </si>
@@ -36,49 +36,520 @@
     <t>SIGNATURE</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PLAID</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t>Salle_Test2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Salle_Test2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>A</t>
+    <t>FORTHDA</t>
+  </si>
+  <si>
+    <t>chardbeorn</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>KIMVIAGAR</t>
+  </si>
+  <si>
+    <t>swithforth</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>FRID-BAR</t>
+  </si>
+  <si>
+    <t>merlon</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>ANALD</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>NYADON</t>
+  </si>
+  <si>
+    <t>arnaud</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WILRIS</t>
+  </si>
+  <si>
+    <t>axel</t>
+  </si>
+  <si>
+    <t>ROYRICELF</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>SUWARD</t>
+  </si>
+  <si>
+    <t>cesar</t>
+  </si>
+  <si>
+    <t>WYN</t>
+  </si>
+  <si>
+    <t>gaëtan</t>
+  </si>
+  <si>
+    <t>DONNIEL</t>
+  </si>
+  <si>
+    <t>oceane</t>
+  </si>
+  <si>
+    <t>BRYTCWEN</t>
+  </si>
+  <si>
+    <t>elisa</t>
+  </si>
+  <si>
+    <t>RUTHHES</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>LIAMNI</t>
+  </si>
+  <si>
+    <t>marion</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>HOLRET</t>
+  </si>
+  <si>
+    <t>leechard</t>
+  </si>
+  <si>
+    <t>SANSIG</t>
+  </si>
+  <si>
+    <t>terrah</t>
+  </si>
+  <si>
+    <t>EAL</t>
+  </si>
+  <si>
+    <t>baptiste</t>
+  </si>
+  <si>
+    <t>TOLGIFU</t>
+  </si>
+  <si>
+    <t>cecile</t>
+  </si>
+  <si>
+    <t>LIDAS</t>
+  </si>
+  <si>
+    <t>samlinbeorn</t>
+  </si>
+  <si>
+    <t>ARISUM</t>
+  </si>
+  <si>
+    <t>zonea</t>
+  </si>
+  <si>
+    <t>BERBANDO</t>
+  </si>
+  <si>
+    <t>minsul</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>jaty</t>
+  </si>
+  <si>
+    <t>ETHELE</t>
+  </si>
+  <si>
+    <t>retan</t>
+  </si>
+  <si>
+    <t>MICYNE</t>
+  </si>
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>JEFFCAR</t>
+  </si>
+  <si>
+    <t>carole</t>
+  </si>
+  <si>
+    <t>EADMOND</t>
+  </si>
+  <si>
+    <t>edan</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>dinoma</t>
+  </si>
+  <si>
+    <t>STANCUTHTRI</t>
+  </si>
+  <si>
+    <t>denden</t>
+  </si>
+  <si>
+    <t>GARDJEN</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>MULLER</t>
+  </si>
+  <si>
+    <t>geoffroy</t>
+  </si>
+  <si>
+    <t>DINOBETHFREA</t>
+  </si>
+  <si>
+    <t>kairor</t>
+  </si>
+  <si>
+    <t>MONDRIC</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>PELOC</t>
+  </si>
+  <si>
+    <t>hepaul</t>
+  </si>
+  <si>
+    <t>DEVOE</t>
+  </si>
+  <si>
+    <t>lison</t>
+  </si>
+  <si>
+    <t>KEV-MARMA</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>ALDLAY</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>BETFERTH</t>
+  </si>
+  <si>
+    <t>grimu</t>
+  </si>
+  <si>
+    <t>groupeTest</t>
+  </si>
+  <si>
+    <t>etudiantB</t>
+  </si>
+  <si>
+    <t>etudiantPrenomB</t>
+  </si>
+  <si>
+    <t>SALETT</t>
+  </si>
+  <si>
+    <t>julien</t>
+  </si>
+  <si>
+    <t>SONSUNG</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>ROYAN</t>
+  </si>
+  <si>
+    <t>brassonbar</t>
+  </si>
+  <si>
+    <t>etudiantC</t>
+  </si>
+  <si>
+    <t>etudiantPrenomC</t>
+  </si>
+  <si>
+    <t>SERE</t>
+  </si>
+  <si>
+    <t>wilya</t>
+  </si>
+  <si>
+    <t>NASAM</t>
+  </si>
+  <si>
+    <t>bryce</t>
+  </si>
+  <si>
+    <t>CYNBETH</t>
+  </si>
+  <si>
+    <t>pepette</t>
+  </si>
+  <si>
+    <t>LAYFERUM</t>
+  </si>
+  <si>
+    <t>yajai</t>
+  </si>
+  <si>
+    <t>ANNRUTH</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>SUNGNATH</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>PEBUR</t>
+  </si>
+  <si>
+    <t>cloé</t>
+  </si>
+  <si>
+    <t>GRIMSU</t>
+  </si>
+  <si>
+    <t>valentin</t>
+  </si>
+  <si>
+    <t>GEUZENNEC</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>RIEMARK</t>
+  </si>
+  <si>
+    <t>londer</t>
+  </si>
+  <si>
+    <t>LYCEO</t>
+  </si>
+  <si>
+    <t>aspell</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>CAISEN</t>
+  </si>
+  <si>
+    <t>sonfortinan</t>
+  </si>
+  <si>
+    <t>VELLHAMACAR</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>DAGUTH</t>
+  </si>
+  <si>
+    <t>crisze</t>
+  </si>
+  <si>
+    <t>ANDWYN</t>
+  </si>
+  <si>
+    <t>lucille</t>
+  </si>
+  <si>
+    <t>BANDOGAR</t>
+  </si>
+  <si>
+    <t>ronjo</t>
+  </si>
+  <si>
+    <t>DRASERE</t>
+  </si>
+  <si>
+    <t>tancrède</t>
+  </si>
+  <si>
+    <t>SORIE</t>
+  </si>
+  <si>
+    <t>laurine</t>
+  </si>
+  <si>
+    <t>GRIM</t>
+  </si>
+  <si>
+    <t>etienne</t>
+  </si>
+  <si>
+    <t>MUELDOHELM</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>ADELWINE</t>
+  </si>
+  <si>
+    <t>wardwil</t>
+  </si>
+  <si>
+    <t>etudiantA</t>
+  </si>
+  <si>
+    <t>etudiantPrenomA</t>
+  </si>
+  <si>
+    <t>CHELLSTAN</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>LACCROW</t>
+  </si>
+  <si>
+    <t>laure</t>
+  </si>
+  <si>
+    <t>ARSAN</t>
+  </si>
+  <si>
+    <t>deonmannen</t>
+  </si>
+  <si>
+    <t>GARHA</t>
+  </si>
+  <si>
+    <t>pascaline</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>lea</t>
+  </si>
+  <si>
+    <t>WERDAR</t>
+  </si>
+  <si>
+    <t>dergast</t>
+  </si>
+  <si>
+    <t>FORTHCROW</t>
+  </si>
+  <si>
+    <t>locchell</t>
+  </si>
+  <si>
+    <t>TRITHOR</t>
+  </si>
+  <si>
+    <t>jules</t>
+  </si>
+  <si>
+    <t>BRYTFREA</t>
+  </si>
+  <si>
+    <t>anne cécile</t>
+  </si>
+  <si>
+    <t>ORDROL</t>
+  </si>
+  <si>
+    <t>dica</t>
+  </si>
+  <si>
+    <t>CIAHEW</t>
+  </si>
+  <si>
+    <t>stanko</t>
+  </si>
+  <si>
+    <t>THONYDA</t>
+  </si>
+  <si>
+    <t>macnald</t>
+  </si>
+  <si>
+    <t>DAREN</t>
+  </si>
+  <si>
+    <t>nyahew</t>
+  </si>
+  <si>
+    <t>JACKVELL</t>
+  </si>
+  <si>
+    <t>ludivine</t>
   </si>
 </sst>
 </file>
@@ -142,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -173,39 +644,39 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -213,79 +684,79 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -293,19 +764,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -313,19 +784,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -333,19 +804,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -353,79 +824,79 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -433,59 +904,59 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -493,176 +964,176 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
@@ -670,22 +1141,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -693,59 +1164,59 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -753,39 +1224,39 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -793,59 +1264,59 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -853,19 +1324,19 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -873,19 +1344,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -893,219 +1364,219 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1113,19 +1584,19 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1133,99 +1604,99 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -1233,59 +1704,59 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -1293,39 +1764,39 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -1333,39 +1804,39 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -1373,239 +1844,239 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -1613,59 +2084,119 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>20</v>
+      <c r="F77" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +2206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1709,45 +2240,45 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1755,91 +2286,91 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1847,22 +2378,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1870,22 +2401,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1893,22 +2424,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1916,91 +2447,91 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2008,68 +2539,68 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2077,229 +2608,229 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2307,68 +2838,68 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2376,45 +2907,45 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2422,68 +2953,68 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2491,22 +3022,22 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2514,22 +3045,22 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2537,252 +3068,252 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2790,22 +3321,22 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -2813,114 +3344,114 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -2928,68 +3459,68 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -2997,45 +3528,45 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -3043,45 +3574,45 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3089,275 +3620,275 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -3365,68 +3896,137 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>10</v>
+      <c r="F77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/fichierPourTest/placement_5-2-1.xlsx
+++ b/fichierPourTest/placement_5-2-1.xlsx
@@ -36,25 +36,445 @@
     <t>SIGNATURE</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TRITHOR</t>
+  </si>
+  <si>
+    <t>jules</t>
+  </si>
+  <si>
+    <t>Salle_Test2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>WERDAR</t>
+  </si>
+  <si>
+    <t>dergast</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>RIEMARK</t>
+  </si>
+  <si>
+    <t>londer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>THONYDA</t>
+  </si>
+  <si>
+    <t>macnald</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ANNRUTH</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>CYNBETH</t>
+  </si>
+  <si>
+    <t>pepette</t>
+  </si>
+  <si>
+    <t>GRIM</t>
+  </si>
+  <si>
+    <t>etienne</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>STANCUTHTRI</t>
+  </si>
+  <si>
+    <t>denden</t>
+  </si>
+  <si>
+    <t>LIAMNI</t>
+  </si>
+  <si>
+    <t>marion</t>
+  </si>
+  <si>
+    <t>CAISEN</t>
+  </si>
+  <si>
+    <t>sonfortinan</t>
+  </si>
+  <si>
+    <t>TOLGIFU</t>
+  </si>
+  <si>
+    <t>cecile</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>LIDAS</t>
+  </si>
+  <si>
+    <t>samlinbeorn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>GEUZENNEC</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>lea</t>
+  </si>
+  <si>
+    <t>ROYAN</t>
+  </si>
+  <si>
+    <t>brassonbar</t>
+  </si>
+  <si>
+    <t>GARDJEN</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>SUWARD</t>
+  </si>
+  <si>
+    <t>cesar</t>
+  </si>
+  <si>
+    <t>FORTHCROW</t>
+  </si>
+  <si>
+    <t>locchell</t>
+  </si>
+  <si>
+    <t>SORIE</t>
+  </si>
+  <si>
+    <t>laurine</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>dinoma</t>
+  </si>
+  <si>
+    <t>CIAHEW</t>
+  </si>
+  <si>
+    <t>stanko</t>
+  </si>
+  <si>
+    <t>ANDWYN</t>
+  </si>
+  <si>
+    <t>lucille</t>
+  </si>
+  <si>
+    <t>BETFERTH</t>
+  </si>
+  <si>
+    <t>grimu</t>
+  </si>
+  <si>
+    <t>ETHELE</t>
+  </si>
+  <si>
+    <t>retan</t>
+  </si>
+  <si>
+    <t>WILRIS</t>
+  </si>
+  <si>
+    <t>axel</t>
+  </si>
+  <si>
+    <t>GARHA</t>
+  </si>
+  <si>
+    <t>pascaline</t>
+  </si>
+  <si>
+    <t>HOLRET</t>
+  </si>
+  <si>
+    <t>leechard</t>
+  </si>
+  <si>
+    <t>KEV-MARMA</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>LACCROW</t>
+  </si>
+  <si>
+    <t>laure</t>
+  </si>
+  <si>
+    <t>JEFFCAR</t>
+  </si>
+  <si>
+    <t>carole</t>
+  </si>
+  <si>
+    <t>LAYFERUM</t>
+  </si>
+  <si>
+    <t>yajai</t>
+  </si>
+  <si>
+    <t>WYN</t>
+  </si>
+  <si>
+    <t>gaëtan</t>
+  </si>
+  <si>
+    <t>PEBUR</t>
+  </si>
+  <si>
+    <t>cloé</t>
+  </si>
+  <si>
+    <t>SERE</t>
+  </si>
+  <si>
+    <t>wilya</t>
+  </si>
+  <si>
+    <t>SALETT</t>
+  </si>
+  <si>
+    <t>julien</t>
+  </si>
+  <si>
+    <t>DAGUTH</t>
+  </si>
+  <si>
+    <t>crisze</t>
+  </si>
+  <si>
+    <t>SUNGNATH</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>BANDOGAR</t>
+  </si>
+  <si>
+    <t>ronjo</t>
+  </si>
+  <si>
+    <t>CHELLSTAN</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>VELLHAMACAR</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>BRYTFREA</t>
+  </si>
+  <si>
+    <t>anne cécile</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>jaty</t>
+  </si>
+  <si>
+    <t>PLAID</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t>EAL</t>
+  </si>
+  <si>
+    <t>baptiste</t>
+  </si>
+  <si>
+    <t>ARSAN</t>
+  </si>
+  <si>
+    <t>deonmannen</t>
+  </si>
+  <si>
     <t>EADMOND</t>
   </si>
   <si>
     <t>edan</t>
   </si>
   <si>
-    <t>Salle_Test2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>B</t>
+    <t>BRYTCWEN</t>
+  </si>
+  <si>
+    <t>elisa</t>
+  </si>
+  <si>
+    <t>ALDLAY</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>DRASERE</t>
+  </si>
+  <si>
+    <t>tancrède</t>
+  </si>
+  <si>
+    <t>SANSIG</t>
+  </si>
+  <si>
+    <t>terrah</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>LYCEO</t>
+  </si>
+  <si>
+    <t>aspell</t>
+  </si>
+  <si>
+    <t>KIMVIAGAR</t>
+  </si>
+  <si>
+    <t>swithforth</t>
+  </si>
+  <si>
+    <t>DINOBETHFREA</t>
+  </si>
+  <si>
+    <t>kairor</t>
+  </si>
+  <si>
+    <t>ANALD</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>MUELDOHELM</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>FRID-BAR</t>
+  </si>
+  <si>
+    <t>merlon</t>
+  </si>
+  <si>
+    <t>MONDRIC</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>JACKVELL</t>
+  </si>
+  <si>
+    <t>ludivine</t>
+  </si>
+  <si>
+    <t>ORDROL</t>
+  </si>
+  <si>
+    <t>dica</t>
+  </si>
+  <si>
+    <t>DAREN</t>
+  </si>
+  <si>
+    <t>nyahew</t>
+  </si>
+  <si>
+    <t>DONNIEL</t>
+  </si>
+  <si>
+    <t>oceane</t>
+  </si>
+  <si>
+    <t>DEVOE</t>
+  </si>
+  <si>
+    <t>lison</t>
+  </si>
+  <si>
+    <t>PELOC</t>
+  </si>
+  <si>
+    <t>hepaul</t>
+  </si>
+  <si>
+    <t>FORTHDA</t>
+  </si>
+  <si>
+    <t>chardbeorn</t>
+  </si>
+  <si>
+    <t>MICYNE</t>
+  </si>
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>BERBANDO</t>
+  </si>
+  <si>
+    <t>minsul</t>
   </si>
   <si>
     <t>NYADON</t>
@@ -63,109 +483,40 @@
     <t>arnaud</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>KEV-MARMA</t>
-  </si>
-  <si>
-    <t>enzo</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>GARHA</t>
-  </si>
-  <si>
-    <t>pascaline</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>HOLRET</t>
-  </si>
-  <si>
-    <t>leechard</t>
-  </si>
-  <si>
-    <t>DAREN</t>
-  </si>
-  <si>
-    <t>nyahew</t>
-  </si>
-  <si>
-    <t>SORIE</t>
-  </si>
-  <si>
-    <t>laurine</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DEVOE</t>
-  </si>
-  <si>
-    <t>lison</t>
-  </si>
-  <si>
-    <t>BANDOGAR</t>
-  </si>
-  <si>
-    <t>ronjo</t>
-  </si>
-  <si>
-    <t>CIAHEW</t>
-  </si>
-  <si>
-    <t>stanko</t>
-  </si>
-  <si>
-    <t>SUNGNATH</t>
-  </si>
-  <si>
-    <t>gard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>SERE</t>
-  </si>
-  <si>
-    <t>wilya</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>dinoma</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>JEFFCAR</t>
-  </si>
-  <si>
-    <t>carole</t>
-  </si>
-  <si>
-    <t>MICYNE</t>
-  </si>
-  <si>
-    <t>theo</t>
+    <t>MULLER</t>
+  </si>
+  <si>
+    <t>geoffroy</t>
+  </si>
+  <si>
+    <t>ADELWINE</t>
+  </si>
+  <si>
+    <t>wardwil</t>
+  </si>
+  <si>
+    <t>ARISUM</t>
+  </si>
+  <si>
+    <t>zonea</t>
+  </si>
+  <si>
+    <t>SONSUNG</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>NASAM</t>
+  </si>
+  <si>
+    <t>bryce</t>
+  </si>
+  <si>
+    <t>ROYRICELF</t>
+  </si>
+  <si>
+    <t>camille</t>
   </si>
   <si>
     <t>RUTHHES</t>
@@ -174,361 +525,10 @@
     <t>kasa</t>
   </si>
   <si>
-    <t>ORDROL</t>
-  </si>
-  <si>
-    <t>dica</t>
-  </si>
-  <si>
-    <t>LACCROW</t>
-  </si>
-  <si>
-    <t>laure</t>
-  </si>
-  <si>
-    <t>CYNBETH</t>
-  </si>
-  <si>
-    <t>pepette</t>
-  </si>
-  <si>
-    <t>WYN</t>
-  </si>
-  <si>
-    <t>gaëtan</t>
-  </si>
-  <si>
-    <t>GARDJEN</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>SUWARD</t>
-  </si>
-  <si>
-    <t>cesar</t>
-  </si>
-  <si>
-    <t>EAL</t>
-  </si>
-  <si>
-    <t>baptiste</t>
-  </si>
-  <si>
-    <t>LIAMNI</t>
-  </si>
-  <si>
-    <t>marion</t>
-  </si>
-  <si>
-    <t>LIDAS</t>
-  </si>
-  <si>
-    <t>samlinbeorn</t>
-  </si>
-  <si>
-    <t>ANDWYN</t>
-  </si>
-  <si>
-    <t>lucille</t>
-  </si>
-  <si>
-    <t>ADELWINE</t>
-  </si>
-  <si>
-    <t>wardwil</t>
-  </si>
-  <si>
-    <t>GEUZENNEC</t>
-  </si>
-  <si>
-    <t>oscar</t>
-  </si>
-  <si>
-    <t>LYCEO</t>
-  </si>
-  <si>
-    <t>aspell</t>
-  </si>
-  <si>
-    <t>STANCUTHTRI</t>
-  </si>
-  <si>
-    <t>denden</t>
-  </si>
-  <si>
-    <t>RIEMARK</t>
-  </si>
-  <si>
-    <t>londer</t>
-  </si>
-  <si>
-    <t>SALETT</t>
-  </si>
-  <si>
-    <t>julien</t>
-  </si>
-  <si>
-    <t>CHELLSTAN</t>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>CAISEN</t>
-  </si>
-  <si>
-    <t>sonfortinan</t>
-  </si>
-  <si>
-    <t>ANNRUTH</t>
-  </si>
-  <si>
-    <t>eva</t>
-  </si>
-  <si>
-    <t>BETFERTH</t>
-  </si>
-  <si>
-    <t>grimu</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>lea</t>
-  </si>
-  <si>
-    <t>BRYTCWEN</t>
-  </si>
-  <si>
-    <t>elisa</t>
-  </si>
-  <si>
-    <t>DRASERE</t>
-  </si>
-  <si>
-    <t>tancrède</t>
-  </si>
-  <si>
-    <t>DONNIEL</t>
-  </si>
-  <si>
-    <t>oceane</t>
-  </si>
-  <si>
-    <t>SONSUNG</t>
-  </si>
-  <si>
-    <t>charlotte</t>
-  </si>
-  <si>
-    <t>WERDAR</t>
-  </si>
-  <si>
-    <t>dergast</t>
-  </si>
-  <si>
-    <t>ALDLAY</t>
-  </si>
-  <si>
-    <t>arthur</t>
-  </si>
-  <si>
-    <t>BERBANDO</t>
-  </si>
-  <si>
-    <t>minsul</t>
-  </si>
-  <si>
-    <t>THONYDA</t>
-  </si>
-  <si>
-    <t>macnald</t>
-  </si>
-  <si>
-    <t>DINOBETHFREA</t>
-  </si>
-  <si>
-    <t>kairor</t>
-  </si>
-  <si>
-    <t>FORTHDA</t>
-  </si>
-  <si>
-    <t>chardbeorn</t>
-  </si>
-  <si>
-    <t>ARSAN</t>
-  </si>
-  <si>
-    <t>deonmannen</t>
-  </si>
-  <si>
-    <t>ROYAN</t>
-  </si>
-  <si>
-    <t>brassonbar</t>
-  </si>
-  <si>
-    <t>PELOC</t>
-  </si>
-  <si>
-    <t>hepaul</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ROYRICELF</t>
-  </si>
-  <si>
-    <t>camille</t>
-  </si>
-  <si>
-    <t>FRID-BAR</t>
-  </si>
-  <si>
-    <t>merlon</t>
-  </si>
-  <si>
-    <t>SANSIG</t>
-  </si>
-  <si>
-    <t>terrah</t>
-  </si>
-  <si>
-    <t>ANALD</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>WILRIS</t>
-  </si>
-  <si>
-    <t>axel</t>
-  </si>
-  <si>
-    <t>FORTHCROW</t>
-  </si>
-  <si>
-    <t>locchell</t>
-  </si>
-  <si>
-    <t>DAGUTH</t>
-  </si>
-  <si>
-    <t>crisze</t>
-  </si>
-  <si>
-    <t>PEBUR</t>
-  </si>
-  <si>
-    <t>cloé</t>
-  </si>
-  <si>
-    <t>LAU</t>
-  </si>
-  <si>
-    <t>jaty</t>
-  </si>
-  <si>
-    <t>GRIM</t>
-  </si>
-  <si>
-    <t>etienne</t>
-  </si>
-  <si>
-    <t>ARISUM</t>
-  </si>
-  <si>
-    <t>zonea</t>
-  </si>
-  <si>
-    <t>MULLER</t>
-  </si>
-  <si>
-    <t>geoffroy</t>
-  </si>
-  <si>
-    <t>LAYFERUM</t>
-  </si>
-  <si>
-    <t>yajai</t>
-  </si>
-  <si>
-    <t>BRYTFREA</t>
-  </si>
-  <si>
-    <t>anne cécile</t>
-  </si>
-  <si>
-    <t>MONDRIC</t>
-  </si>
-  <si>
-    <t>emma</t>
-  </si>
-  <si>
-    <t>ETHELE</t>
-  </si>
-  <si>
-    <t>retan</t>
-  </si>
-  <si>
-    <t>TOLGIFU</t>
-  </si>
-  <si>
-    <t>cecile</t>
-  </si>
-  <si>
-    <t>KIMVIAGAR</t>
-  </si>
-  <si>
-    <t>swithforth</t>
-  </si>
-  <si>
-    <t>PLAID</t>
-  </si>
-  <si>
-    <t>marie</t>
-  </si>
-  <si>
-    <t>NASAM</t>
-  </si>
-  <si>
-    <t>bryce</t>
-  </si>
-  <si>
-    <t>MUELDOHELM</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>TRITHOR</t>
-  </si>
-  <si>
-    <t>jules</t>
-  </si>
-  <si>
-    <t>JACKVELL</t>
-  </si>
-  <si>
-    <t>ludivine</t>
-  </si>
-  <si>
     <t>GRIMSU</t>
   </si>
   <si>
     <t>valentin</t>
-  </si>
-  <si>
-    <t>VELLHAMACAR</t>
-  </si>
-  <si>
-    <t>sarah</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>47</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>71</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>79</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>81</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>95</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>105</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>111</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>117</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>119</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>124</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>128</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>136</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>144</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>146</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>148</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>150</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>156</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>162</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>47</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>71</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>79</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>81</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>95</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>105</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>111</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>117</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>119</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>124</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>128</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>136</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>144</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>146</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>148</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>150</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>156</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>162</v>

--- a/fichierPourTest/placement_5-2-1.xlsx
+++ b/fichierPourTest/placement_5-2-1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="238">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>GRP</t>
   </si>
@@ -36,25 +39,346 @@
     <t>SIGNATURE</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>FORTHDA</t>
+  </si>
+  <si>
+    <t>chardbeorn</t>
+  </si>
+  <si>
+    <t>Salle_Test2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ARISUM</t>
+  </si>
+  <si>
+    <t>zonea</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>KIMVIAGAR</t>
+  </si>
+  <si>
+    <t>swithforth</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>PEBUR</t>
+  </si>
+  <si>
+    <t>cloé</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ADELWINE</t>
+  </si>
+  <si>
+    <t>wardwil</t>
+  </si>
+  <si>
+    <t>JACKVELL</t>
+  </si>
+  <si>
+    <t>ludivine</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ROYAN</t>
+  </si>
+  <si>
+    <t>brassonbar</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>WYN</t>
+  </si>
+  <si>
+    <t>gaëtan</t>
+  </si>
+  <si>
+    <t>SORIE</t>
+  </si>
+  <si>
+    <t>laurine</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>BRYTCWEN</t>
+  </si>
+  <si>
+    <t>elisa</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>LACCROW</t>
+  </si>
+  <si>
+    <t>laure</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>THONYDA</t>
+  </si>
+  <si>
+    <t>macnald</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>GARDJEN</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>MUELDOHELM</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CYNBETH</t>
+  </si>
+  <si>
+    <t>pepette</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>EADMOND</t>
+  </si>
+  <si>
+    <t>edan</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ANNRUTH</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>CAISEN</t>
+  </si>
+  <si>
+    <t>sonfortinan</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TOLGIFU</t>
+  </si>
+  <si>
+    <t>cecile</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ARSAN</t>
+  </si>
+  <si>
+    <t>deonmannen</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>jaty</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>GEUZENNEC</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>SERE</t>
+  </si>
+  <si>
+    <t>wilya</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TRITHOR</t>
+  </si>
+  <si>
+    <t>jules</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>FORTHCROW</t>
+  </si>
+  <si>
+    <t>locchell</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DEVOE</t>
+  </si>
+  <si>
+    <t>lison</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ETHELE</t>
+  </si>
+  <si>
+    <t>retan</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>PLAID</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>DINOBETHFREA</t>
+  </si>
+  <si>
+    <t>kairor</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>DONNIEL</t>
   </si>
   <si>
     <t>oceane</t>
   </si>
   <si>
-    <t>Salle_Test2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>C</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>SUNGNATH</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ANDWYN</t>
+  </si>
+  <si>
+    <t>lucille</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>SALETT</t>
+  </si>
+  <si>
+    <t>julien</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>SONSUNG</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>NYADON</t>
+  </si>
+  <si>
+    <t>arnaud</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>MULLER</t>
+  </si>
+  <si>
+    <t>geoffroy</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>FRID-BAR</t>
@@ -63,22 +387,304 @@
     <t>merlon</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>ROYAN</t>
-  </si>
-  <si>
-    <t>brassonbar</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>WILRIS</t>
+  </si>
+  <si>
+    <t>axel</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>LIDAS</t>
+  </si>
+  <si>
+    <t>samlinbeorn</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DRASERE</t>
+  </si>
+  <si>
+    <t>tancrède</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>lea</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>LIAMNI</t>
+  </si>
+  <si>
+    <t>marion</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>LYCEO</t>
+  </si>
+  <si>
+    <t>aspell</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SANSIG</t>
+  </si>
+  <si>
+    <t>terrah</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>CIAHEW</t>
+  </si>
+  <si>
+    <t>stanko</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>GARHA</t>
+  </si>
+  <si>
+    <t>pascaline</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>RUTHHES</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>EAL</t>
+  </si>
+  <si>
+    <t>baptiste</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>HOLRET</t>
+  </si>
+  <si>
+    <t>leechard</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>WERDAR</t>
+  </si>
+  <si>
+    <t>dergast</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>GRIM</t>
+  </si>
+  <si>
+    <t>etienne</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>NASAM</t>
+  </si>
+  <si>
+    <t>bryce</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>MONDRIC</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>GRIMSU</t>
+  </si>
+  <si>
+    <t>valentin</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>PELOC</t>
+  </si>
+  <si>
+    <t>hepaul</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>SUWARD</t>
+  </si>
+  <si>
+    <t>cesar</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>dinoma</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>BERBANDO</t>
+  </si>
+  <si>
+    <t>minsul</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>ROYRICELF</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>MICYNE</t>
+  </si>
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>KEV-MARMA</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RIEMARK</t>
+  </si>
+  <si>
+    <t>londer</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>BETFERTH</t>
+  </si>
+  <si>
+    <t>grimu</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ORDROL</t>
+  </si>
+  <si>
+    <t>dica</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>BRYTFREA</t>
+  </si>
+  <si>
+    <t>anne cécile</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>VELLHAMACAR</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>CHELLSTAN</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>ANALD</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>BANDOGAR</t>
+  </si>
+  <si>
+    <t>ronjo</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>STANCUTHTRI</t>
+  </si>
+  <si>
+    <t>denden</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>ALDLAY</t>
@@ -87,40 +693,7 @@
     <t>arthur</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>THONYDA</t>
-  </si>
-  <si>
-    <t>macnald</t>
-  </si>
-  <si>
-    <t>EADMOND</t>
-  </si>
-  <si>
-    <t>edan</t>
-  </si>
-  <si>
-    <t>TOLGIFU</t>
-  </si>
-  <si>
-    <t>cecile</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BANDOGAR</t>
-  </si>
-  <si>
-    <t>ronjo</t>
-  </si>
-  <si>
-    <t>LACCROW</t>
-  </si>
-  <si>
-    <t>laure</t>
+    <t>72</t>
   </si>
   <si>
     <t>DAREN</t>
@@ -129,115 +702,7 @@
     <t>nyahew</t>
   </si>
   <si>
-    <t>HOLRET</t>
-  </si>
-  <si>
-    <t>leechard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PLAID</t>
-  </si>
-  <si>
-    <t>marie</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>LYCEO</t>
-  </si>
-  <si>
-    <t>aspell</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>MICYNE</t>
-  </si>
-  <si>
-    <t>theo</t>
-  </si>
-  <si>
-    <t>SORIE</t>
-  </si>
-  <si>
-    <t>laurine</t>
-  </si>
-  <si>
-    <t>FORTHCROW</t>
-  </si>
-  <si>
-    <t>locchell</t>
-  </si>
-  <si>
-    <t>LIDAS</t>
-  </si>
-  <si>
-    <t>samlinbeorn</t>
-  </si>
-  <si>
-    <t>BERBANDO</t>
-  </si>
-  <si>
-    <t>minsul</t>
-  </si>
-  <si>
-    <t>SANSIG</t>
-  </si>
-  <si>
-    <t>terrah</t>
-  </si>
-  <si>
-    <t>GARDJEN</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>GARHA</t>
-  </si>
-  <si>
-    <t>pascaline</t>
-  </si>
-  <si>
-    <t>SALETT</t>
-  </si>
-  <si>
-    <t>julien</t>
-  </si>
-  <si>
-    <t>ANDWYN</t>
-  </si>
-  <si>
-    <t>lucille</t>
-  </si>
-  <si>
-    <t>FORTHDA</t>
-  </si>
-  <si>
-    <t>chardbeorn</t>
-  </si>
-  <si>
-    <t>SUNGNATH</t>
-  </si>
-  <si>
-    <t>gard</t>
-  </si>
-  <si>
-    <t>STANCUTHTRI</t>
-  </si>
-  <si>
-    <t>denden</t>
-  </si>
-  <si>
-    <t>NYADON</t>
-  </si>
-  <si>
-    <t>arnaud</t>
+    <t>73</t>
   </si>
   <si>
     <t>LAYFERUM</t>
@@ -246,289 +711,22 @@
     <t>yajai</t>
   </si>
   <si>
-    <t>LAU</t>
-  </si>
-  <si>
-    <t>jaty</t>
-  </si>
-  <si>
-    <t>GEUZENNEC</t>
-  </si>
-  <si>
-    <t>oscar</t>
-  </si>
-  <si>
-    <t>WYN</t>
-  </si>
-  <si>
-    <t>gaëtan</t>
-  </si>
-  <si>
-    <t>SONSUNG</t>
-  </si>
-  <si>
-    <t>charlotte</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>dinoma</t>
-  </si>
-  <si>
-    <t>RUTHHES</t>
-  </si>
-  <si>
-    <t>kasa</t>
-  </si>
-  <si>
-    <t>MULLER</t>
-  </si>
-  <si>
-    <t>geoffroy</t>
-  </si>
-  <si>
-    <t>GRIMSU</t>
-  </si>
-  <si>
-    <t>valentin</t>
-  </si>
-  <si>
-    <t>WILRIS</t>
-  </si>
-  <si>
-    <t>axel</t>
-  </si>
-  <si>
-    <t>KEV-MARMA</t>
-  </si>
-  <si>
-    <t>enzo</t>
-  </si>
-  <si>
-    <t>BRYTFREA</t>
-  </si>
-  <si>
-    <t>anne cécile</t>
-  </si>
-  <si>
-    <t>DEVOE</t>
-  </si>
-  <si>
-    <t>lison</t>
-  </si>
-  <si>
-    <t>RIEMARK</t>
-  </si>
-  <si>
-    <t>londer</t>
-  </si>
-  <si>
-    <t>ADELWINE</t>
-  </si>
-  <si>
-    <t>wardwil</t>
-  </si>
-  <si>
-    <t>PEBUR</t>
-  </si>
-  <si>
-    <t>cloé</t>
-  </si>
-  <si>
-    <t>GRIM</t>
-  </si>
-  <si>
-    <t>etienne</t>
-  </si>
-  <si>
-    <t>CHELLSTAN</t>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>LIAMNI</t>
-  </si>
-  <si>
-    <t>marion</t>
-  </si>
-  <si>
-    <t>VELLHAMACAR</t>
-  </si>
-  <si>
-    <t>sarah</t>
-  </si>
-  <si>
-    <t>NASAM</t>
-  </si>
-  <si>
-    <t>bryce</t>
-  </si>
-  <si>
-    <t>JACKVELL</t>
-  </si>
-  <si>
-    <t>ludivine</t>
-  </si>
-  <si>
-    <t>MUELDOHELM</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>PELOC</t>
-  </si>
-  <si>
-    <t>hepaul</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>lea</t>
-  </si>
-  <si>
-    <t>BRYTCWEN</t>
-  </si>
-  <si>
-    <t>elisa</t>
-  </si>
-  <si>
-    <t>MONDRIC</t>
-  </si>
-  <si>
-    <t>emma</t>
+    <t>74</t>
+  </si>
+  <si>
+    <t>JEFFCAR</t>
+  </si>
+  <si>
+    <t>carole</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>DAGUTH</t>
   </si>
   <si>
     <t>crisze</t>
-  </si>
-  <si>
-    <t>WERDAR</t>
-  </si>
-  <si>
-    <t>dergast</t>
-  </si>
-  <si>
-    <t>ROYRICELF</t>
-  </si>
-  <si>
-    <t>camille</t>
-  </si>
-  <si>
-    <t>EAL</t>
-  </si>
-  <si>
-    <t>baptiste</t>
-  </si>
-  <si>
-    <t>CYNBETH</t>
-  </si>
-  <si>
-    <t>pepette</t>
-  </si>
-  <si>
-    <t>ORDROL</t>
-  </si>
-  <si>
-    <t>dica</t>
-  </si>
-  <si>
-    <t>ANNRUTH</t>
-  </si>
-  <si>
-    <t>eva</t>
-  </si>
-  <si>
-    <t>DINOBETHFREA</t>
-  </si>
-  <si>
-    <t>kairor</t>
-  </si>
-  <si>
-    <t>BETFERTH</t>
-  </si>
-  <si>
-    <t>grimu</t>
-  </si>
-  <si>
-    <t>SUWARD</t>
-  </si>
-  <si>
-    <t>cesar</t>
-  </si>
-  <si>
-    <t>CAISEN</t>
-  </si>
-  <si>
-    <t>sonfortinan</t>
-  </si>
-  <si>
-    <t>ARISUM</t>
-  </si>
-  <si>
-    <t>zonea</t>
-  </si>
-  <si>
-    <t>ANALD</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>ETHELE</t>
-  </si>
-  <si>
-    <t>retan</t>
-  </si>
-  <si>
-    <t>TRITHOR</t>
-  </si>
-  <si>
-    <t>jules</t>
-  </si>
-  <si>
-    <t>ARSAN</t>
-  </si>
-  <si>
-    <t>deonmannen</t>
-  </si>
-  <si>
-    <t>DRASERE</t>
-  </si>
-  <si>
-    <t>tancrède</t>
-  </si>
-  <si>
-    <t>JEFFCAR</t>
-  </si>
-  <si>
-    <t>carole</t>
-  </si>
-  <si>
-    <t>SERE</t>
-  </si>
-  <si>
-    <t>wilya</t>
-  </si>
-  <si>
-    <t>KIMVIAGAR</t>
-  </si>
-  <si>
-    <t>swithforth</t>
-  </si>
-  <si>
-    <t>CIAHEW</t>
-  </si>
-  <si>
-    <t>stanko</t>
   </si>
 </sst>
 </file>
@@ -592,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -617,1505 +815,1733 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>31</v>
+      <c r="G67" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>24</v>
+      <c r="G74" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,1730 +2579,1733 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
